--- a/Data preparation and analysis/Nonparametric comparisons of means/Data2.xlsx
+++ b/Data preparation and analysis/Nonparametric comparisons of means/Data2.xlsx
@@ -128,10 +128,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -298,44 +298,44 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>11.72</v>
+        <v>13.78</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>8.02</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>9.01</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.17</v>
+        <v>11.59</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,13 +343,13 @@
         <v>50</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>4.5</v>
+        <v>11.72</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>12.23</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,44 +368,44 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>18</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>7.11</v>
+        <v>0.17</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>11.2</v>
+        <v>4.5</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>15.69</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>10.62</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>8.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,13 +413,13 @@
         <v>100</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>12.07</v>
+        <v>7.11</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5.77</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,55 +427,55 @@
         <v>100</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>5.57</v>
+        <v>11.2</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>12.43</v>
+        <v>15.69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>3.42</v>
+        <v>10.62</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>5.61</v>
+        <v>8.46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>3.18</v>
+        <v>12.07</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1.04</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.37</v>
+        <v>5.57</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,13 +483,13 @@
         <v>200</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.53</v>
+        <v>3.42</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>18.75</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,6 +497,48 @@
         <v>200</v>
       </c>
       <c r="B26" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
